--- a/statistics/R/roiHumanBody_Within-PLI_alpha/roiHumanBody_Within-PLI_alpha.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_alpha/roiHumanBody_Within-PLI_alpha.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.014194998569998563</v>
+        <v>-0.0070974992849992813</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0484768318101651</v>
+        <v>0.02423841590508255</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.025343112155256475</v>
+        <v>0.012671556077628238</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.011791383219954654</v>
+        <v>0.0058956916099773271</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.0074239417989417356</v>
+        <v>-0.0037119708994708678</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0099595393713040603</v>
+        <v>-0.0049797696856520302</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.097421067192308919</v>
+        <v>-0.048710533596154459</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.055166511048863998</v>
+        <v>0.027583255524431999</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0093770841670001714</v>
+        <v>-0.0046885420835000857</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.036570183629007214</v>
+        <v>-0.018285091814503607</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.012838468720821616</v>
+        <v>0.0064192343604108082</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.087603930461073343</v>
+        <v>-0.043801965230536671</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0012806924571630574</v>
+        <v>0.00064034622858152868</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>0.052257628197477979</v>
+        <v>0.026128814098738989</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.11752672278988063</v>
+        <v>0.058763361394940317</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.0027698638809748877</v>
+        <v>-0.0013849319404874438</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.016925028620935034</v>
+        <v>0.0084625143104675171</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.017075683742350467</v>
+        <v>-0.0085378418711752335</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.040387326101611942</v>
+        <v>-0.020193663050805971</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0014029180695847021</v>
+        <v>0.00070145903479235105</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.13146837682441398</v>
+        <v>-0.06573418841220699</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.009827107049329209</v>
+        <v>-0.0049135535246646045</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.0063706037970743812</v>
+        <v>-0.0031853018985371906</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.048687151628328096</v>
+        <v>0.024343575814164048</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.010857010857010907</v>
+        <v>-0.0054285054285054535</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.031897745159393864</v>
+        <v>0.015948872579696932</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.097954602716507355</v>
+        <v>-0.048977301358253678</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.043510737628384699</v>
+        <v>-0.02175536881419235</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.037447651733366116</v>
+        <v>-0.018723825866683058</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.0087309531753976266</v>
+        <v>-0.0043654765876988133</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.10573457453156704</v>
+        <v>-0.052867287265783519</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.056703826311669425</v>
+        <v>-0.028351913155834713</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.0048251714918380872</v>
+        <v>-0.0024125857459190436</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.042025699168556363</v>
+        <v>-0.021012849584278182</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.020689247921390708</v>
+        <v>0.010344623960695354</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.035311161501637767</v>
+        <v>-0.017655580750818883</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.11597942480295426</v>
+        <v>0.057989712401477128</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.052593497037941361</v>
+        <v>-0.026296748518970681</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.0029604434366339305</v>
+        <v>0.0014802217183169653</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.0060597838375615609</v>
+        <v>0.0030298919187807805</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.10359338930767503</v>
+        <v>-0.051796694653837516</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.035218253968254121</v>
+        <v>0.01760912698412706</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.01019370290203625</v>
+        <v>-0.0050968514510181251</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.039453344061638917</v>
+        <v>0.019726672030819459</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.047795886031180013</v>
+        <v>-0.023897943015590006</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.017880238515159075</v>
+        <v>-0.0089401192575795374</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.07142621358307627</v>
+        <v>0.035713106791538135</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.001694049939663933</v>
+        <v>-0.00084702496983196651</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.077282023920679399</v>
+        <v>-0.0386410119603397</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.017543859649122751</v>
+        <v>-0.0087719298245613753</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.059757716900574076</v>
+        <v>0.029878858450287038</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.10156951669556716</v>
+        <v>0.050784758347783579</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.018520504631615753</v>
+        <v>-0.0092602523158078764</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.014354630741185315</v>
+        <v>-0.0071773153705926573</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.0060982227648893605</v>
+        <v>0.0030491113824446803</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.037733221943748396</v>
+        <v>0.018866610971874198</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>0.009438009438009487</v>
+        <v>0.0047190047190047435</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.00030923780923775013</v>
+        <v>-0.00015461890461887506</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.056415343915344002</v>
+        <v>-0.028207671957672001</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.059156378600823123</v>
+        <v>-0.029578189300411561</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.03241901048918594</v>
+        <v>0.01620950524459297</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.018185193623790119</v>
+        <v>-0.0090925968118950595</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>0.033564176421319314</v>
+        <v>0.016782088210659657</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>-0.058318415085332309</v>
+        <v>-0.029159207542666155</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.037883007181252704</v>
+        <v>0.018941503590626352</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0086148419481753002</v>
+        <v>0.0043074209740876501</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.066553491992088487</v>
+        <v>0.033276745996044244</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.10664771914771917</v>
+        <v>0.053323859573859586</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.039174324700640528</v>
+        <v>0.019587162350320264</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.060582010582010737</v>
+        <v>0.030291005291005368</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.0087674671008004523</v>
+        <v>0.0043837335504002262</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.04139622560675188</v>
+        <v>-0.02069811280337594</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.022919291173259415</v>
+        <v>-0.011459645586629708</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.017342739564961629</v>
+        <v>0.0086713697824808145</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>0.0023819738105452237</v>
+        <v>0.0011909869052726119</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.0057578586990351677</v>
+        <v>-0.0028789293495175838</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.023380523380523377</v>
+        <v>-0.011690261690261688</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>0.0083172999839665196</v>
+        <v>0.0041586499919832598</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.10428827095493765</v>
+        <v>-0.052144135477468823</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>0.1114308753197642</v>
+        <v>0.0557154376598821</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.096893026216334499</v>
+        <v>0.04844651310816725</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.013893592840961144</v>
+        <v>-0.0069467964204805721</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.091998415527827282</v>
+        <v>0.045999207763913641</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.037188208616780016</v>
+        <v>0.018594104308390008</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.016486724820058307</v>
+        <v>-0.0082433624100291536</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.074450013923698266</v>
+        <v>-0.037225006961849133</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.028051861385194665</v>
+        <v>-0.014025930692597333</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.00097465886939585022</v>
+        <v>-0.00048732943469792511</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0056246722913388947</v>
+        <v>-0.0028123361456694473</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.08185496420790539</v>
+        <v>0.040927482103952695</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.017563198118753676</v>
+        <v>-0.0087815990593768378</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.021846282372598169</v>
+        <v>0.010923141186299085</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.087873587873587899</v>
+        <v>0.04393679393679395</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.028875028875028852</v>
+        <v>-0.014437514437514426</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.033104533104532985</v>
+        <v>0.016552266552266492</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.023340801118578891</v>
+        <v>0.011670400559289446</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.12079968439617572</v>
+        <v>0.060399842198087861</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.0056371086446272978</v>
+        <v>0.0028185543223136489</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.012643946467475908</v>
+        <v>0.0063219732337379542</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.00057830940183889457</v>
+        <v>0.00028915470091944728</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.042670277987738314</v>
+        <v>-0.021335138993869157</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.076696481061560573</v>
+        <v>-0.038348240530780286</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.088223314016964871</v>
+        <v>-0.044111657008482436</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.048473807976732008</v>
+        <v>-0.024236903988366004</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.11997711997711991</v>
+        <v>0.059988559988559953</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.019521843825249408</v>
+        <v>0.0097609219126247038</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.058063629492201008</v>
+        <v>0.029031814746100504</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.0047789725209079759</v>
+        <v>-0.0023894862604539879</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.0042618756904472255</v>
+        <v>-0.0021309378452236127</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.059452309452309615</v>
+        <v>-0.029726154726154808</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.032576990910324233</v>
+        <v>0.016288495455162116</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.070869943418963022</v>
+        <v>-0.035434971709481511</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.0078008411341743966</v>
+        <v>-0.0039004205670871983</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.017149081854964221</v>
+        <v>-0.0085745409274821105</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.038564205230871951</v>
+        <v>0.019282102615435975</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.0020564231090546281</v>
+        <v>0.0010282115545273141</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.015293681960348582</v>
+        <v>0.0076468409801742909</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.0032203014659155094</v>
+        <v>-0.0016101507329577547</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.0028473962684489318</v>
+        <v>0.0014236981342244659</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.044341044341044411</v>
+        <v>-0.022170522170522206</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.026728409081350435</v>
+        <v>-0.013364204540675217</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>0.020521017048794776</v>
+        <v>0.010260508524397388</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.049119668911335512</v>
+        <v>-0.024559834455667756</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.031975363244713173</v>
+        <v>-0.015987681622356587</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.030309901738473144</v>
+        <v>0.015154950869236572</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>0.013684319239874898</v>
+        <v>0.006842159619937449</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>0.067519900853234172</v>
+        <v>0.033759950426617086</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.049776306919164015</v>
+        <v>-0.024888153459582008</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.10518601308074993</v>
+        <v>0.052593006540374965</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>-0.034772868106201449</v>
+        <v>-0.017386434053100724</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.10527256579888161</v>
+        <v>0.052636282899440806</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.0027622159975101424</v>
+        <v>-0.0013811079987550712</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>-0.052481052481052504</v>
+        <v>-0.026240526240526252</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.018626813948451448</v>
+        <v>-0.0093134069742257242</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.025505358838692205</v>
+        <v>0.012752679419346102</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.096700083542188731</v>
+        <v>-0.048350041771094365</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.061914044370184718</v>
+        <v>0.030957022185092359</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.027859891894979727</v>
+        <v>-0.013929945947489863</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>0.018858760238070565</v>
+        <v>0.0094293801190352827</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.047118547118547072</v>
+        <v>0.023559273559273536</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>-0.045803379136712452</v>
+        <v>-0.022901689568356226</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.010367510367510324</v>
+        <v>0.0051837551837551621</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.030161020637211211</v>
+        <v>0.015080510318605606</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.045333279708279772</v>
+        <v>0.022666639854139886</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.054762678300690093</v>
+        <v>0.027381339150345047</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.0064309207166350357</v>
+        <v>-0.0032154603583175179</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.06611162983711999</v>
+        <v>0.033055814918559995</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>-0.071456916099773338</v>
+        <v>-0.035728458049886669</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.011995206439650852</v>
+        <v>0.0059976032198254259</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.025638032990974169</v>
+        <v>-0.012819016495487084</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.030375083006661974</v>
+        <v>0.015187541503330987</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.093130202048330724</v>
+        <v>-0.046565101024165362</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>-0.036076893219750383</v>
+        <v>-0.018038446609875192</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.025168025168025077</v>
+        <v>-0.012584012584012538</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>0.0072581739248406829</v>
+        <v>0.0036290869624203415</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.024596024596024557</v>
+        <v>-0.012298012298012279</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.11363273704543547</v>
+        <v>0.056816368522717736</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.0099823325629778137</v>
+        <v>-0.0049911662814889068</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.046826588493255161</v>
+        <v>-0.023413294246627581</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>0.0070483749055177958</v>
+        <v>0.0035241874527588979</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.034340331114524614</v>
+        <v>0.017170165557262307</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.0021008403361344463</v>
+        <v>-0.0010504201680672232</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.071219715956558072</v>
+        <v>-0.035609857978279036</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.022335522335522329</v>
+        <v>-0.011167761167761164</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.001614709948043247</v>
+        <v>0.00080735497402162348</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.030464232476616337</v>
+        <v>-0.015232116238308169</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.028751200179771508</v>
+        <v>-0.014375600089885754</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.017160017160017194</v>
+        <v>-0.0085800085800085968</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>-0.025094737594737626</v>
+        <v>-0.012547368797368813</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.05865508365508354</v>
+        <v>0.02932754182754177</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.023892940559607168</v>
+        <v>-0.011946470279803584</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.0088677963677963323</v>
+        <v>0.0044338981838981661</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.0038359788359788038</v>
+        <v>0.0019179894179894019</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.033593744120059943</v>
+        <v>0.016796872060029971</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiHumanBody_Within-PLI_alpha/roiHumanBody_Within-PLI_alpha.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_alpha/roiHumanBody_Within-PLI_alpha.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.0070974992849992813</v>
+        <v>-0.014194998569998563</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.02423841590508255</v>
+        <v>0.0484768318101651</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>0.012671556077628238</v>
+        <v>0.025343112155256475</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0058956916099773271</v>
+        <v>0.011791383219954654</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.0037119708994708678</v>
+        <v>-0.0074239417989417356</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0049797696856520302</v>
+        <v>-0.0099595393713040603</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.048710533596154459</v>
+        <v>-0.097421067192308919</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.027583255524431999</v>
+        <v>0.055166511048863998</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0046885420835000857</v>
+        <v>-0.0093770841670001714</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.018285091814503607</v>
+        <v>-0.036570183629007214</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0064192343604108082</v>
+        <v>0.012838468720821616</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.043801965230536671</v>
+        <v>-0.087603930461073343</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.00064034622858152868</v>
+        <v>0.0012806924571630574</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>0.026128814098738989</v>
+        <v>0.052257628197477979</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>0.058763361394940317</v>
+        <v>0.11752672278988063</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.0013849319404874438</v>
+        <v>-0.0027698638809748877</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0084625143104675171</v>
+        <v>0.016925028620935034</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0085378418711752335</v>
+        <v>-0.017075683742350467</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.020193663050805971</v>
+        <v>-0.040387326101611942</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.00070145903479235105</v>
+        <v>0.0014029180695847021</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.06573418841220699</v>
+        <v>-0.13146837682441398</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.0049135535246646045</v>
+        <v>-0.009827107049329209</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.0031853018985371906</v>
+        <v>-0.0063706037970743812</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.024343575814164048</v>
+        <v>0.048687151628328096</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0054285054285054535</v>
+        <v>-0.010857010857010907</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.015948872579696932</v>
+        <v>0.031897745159393864</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.048977301358253678</v>
+        <v>-0.097954602716507355</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.02175536881419235</v>
+        <v>-0.043510737628384699</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.018723825866683058</v>
+        <v>-0.037447651733366116</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.0043654765876988133</v>
+        <v>-0.0087309531753976266</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.052867287265783519</v>
+        <v>-0.10573457453156704</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.028351913155834713</v>
+        <v>-0.056703826311669425</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.0024125857459190436</v>
+        <v>-0.0048251714918380872</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.021012849584278182</v>
+        <v>-0.042025699168556363</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.010344623960695354</v>
+        <v>0.020689247921390708</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.017655580750818883</v>
+        <v>-0.035311161501637767</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.057989712401477128</v>
+        <v>0.11597942480295426</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.026296748518970681</v>
+        <v>-0.052593497037941361</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.0014802217183169653</v>
+        <v>0.0029604434366339305</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.0030298919187807805</v>
+        <v>0.0060597838375615609</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.051796694653837516</v>
+        <v>-0.10359338930767503</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.01760912698412706</v>
+        <v>0.035218253968254121</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.0050968514510181251</v>
+        <v>-0.01019370290203625</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>0.019726672030819459</v>
+        <v>0.039453344061638917</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.023897943015590006</v>
+        <v>-0.047795886031180013</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.0089401192575795374</v>
+        <v>-0.017880238515159075</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.035713106791538135</v>
+        <v>0.07142621358307627</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.00084702496983196651</v>
+        <v>-0.001694049939663933</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.0386410119603397</v>
+        <v>-0.077282023920679399</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0087719298245613753</v>
+        <v>-0.017543859649122751</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.029878858450287038</v>
+        <v>0.059757716900574076</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.050784758347783579</v>
+        <v>0.10156951669556716</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.0092602523158078764</v>
+        <v>-0.018520504631615753</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.0071773153705926573</v>
+        <v>-0.014354630741185315</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.0030491113824446803</v>
+        <v>0.0060982227648893605</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.018866610971874198</v>
+        <v>0.037733221943748396</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>0.0047190047190047435</v>
+        <v>0.009438009438009487</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.00015461890461887506</v>
+        <v>-0.00030923780923775013</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.028207671957672001</v>
+        <v>-0.056415343915344002</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.029578189300411561</v>
+        <v>-0.059156378600823123</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.01620950524459297</v>
+        <v>0.03241901048918594</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.0090925968118950595</v>
+        <v>-0.018185193623790119</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>0.016782088210659657</v>
+        <v>0.033564176421319314</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>-0.029159207542666155</v>
+        <v>-0.058318415085332309</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.018941503590626352</v>
+        <v>0.037883007181252704</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0043074209740876501</v>
+        <v>0.0086148419481753002</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>0.033276745996044244</v>
+        <v>0.066553491992088487</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.053323859573859586</v>
+        <v>0.10664771914771917</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.019587162350320264</v>
+        <v>0.039174324700640528</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.030291005291005368</v>
+        <v>0.060582010582010737</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.0043837335504002262</v>
+        <v>0.0087674671008004523</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.02069811280337594</v>
+        <v>-0.04139622560675188</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.011459645586629708</v>
+        <v>-0.022919291173259415</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.0086713697824808145</v>
+        <v>0.017342739564961629</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>0.0011909869052726119</v>
+        <v>0.0023819738105452237</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.0028789293495175838</v>
+        <v>-0.0057578586990351677</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.011690261690261688</v>
+        <v>-0.023380523380523377</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>0.0041586499919832598</v>
+        <v>0.0083172999839665196</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.052144135477468823</v>
+        <v>-0.10428827095493765</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>0.0557154376598821</v>
+        <v>0.1114308753197642</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.04844651310816725</v>
+        <v>0.096893026216334499</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.0069467964204805721</v>
+        <v>-0.013893592840961144</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.045999207763913641</v>
+        <v>0.091998415527827282</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.018594104308390008</v>
+        <v>0.037188208616780016</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.0082433624100291536</v>
+        <v>-0.016486724820058307</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.037225006961849133</v>
+        <v>-0.074450013923698266</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.014025930692597333</v>
+        <v>-0.028051861385194665</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.00048732943469792511</v>
+        <v>-0.00097465886939585022</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0028123361456694473</v>
+        <v>-0.0056246722913388947</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.040927482103952695</v>
+        <v>0.08185496420790539</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.0087815990593768378</v>
+        <v>-0.017563198118753676</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.010923141186299085</v>
+        <v>0.021846282372598169</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.04393679393679395</v>
+        <v>0.087873587873587899</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.014437514437514426</v>
+        <v>-0.028875028875028852</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.016552266552266492</v>
+        <v>0.033104533104532985</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.011670400559289446</v>
+        <v>0.023340801118578891</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.060399842198087861</v>
+        <v>0.12079968439617572</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.0028185543223136489</v>
+        <v>0.0056371086446272978</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0063219732337379542</v>
+        <v>0.012643946467475908</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.00028915470091944728</v>
+        <v>0.00057830940183889457</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.021335138993869157</v>
+        <v>-0.042670277987738314</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.038348240530780286</v>
+        <v>-0.076696481061560573</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.044111657008482436</v>
+        <v>-0.088223314016964871</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.024236903988366004</v>
+        <v>-0.048473807976732008</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.059988559988559953</v>
+        <v>0.11997711997711991</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.0097609219126247038</v>
+        <v>0.019521843825249408</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.029031814746100504</v>
+        <v>0.058063629492201008</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.0023894862604539879</v>
+        <v>-0.0047789725209079759</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.0021309378452236127</v>
+        <v>-0.0042618756904472255</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.029726154726154808</v>
+        <v>-0.059452309452309615</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.016288495455162116</v>
+        <v>0.032576990910324233</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.035434971709481511</v>
+        <v>-0.070869943418963022</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.0039004205670871983</v>
+        <v>-0.0078008411341743966</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0085745409274821105</v>
+        <v>-0.017149081854964221</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>0.019282102615435975</v>
+        <v>0.038564205230871951</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>0.0010282115545273141</v>
+        <v>0.0020564231090546281</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.0076468409801742909</v>
+        <v>0.015293681960348582</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.0016101507329577547</v>
+        <v>-0.0032203014659155094</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>0.0014236981342244659</v>
+        <v>0.0028473962684489318</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.022170522170522206</v>
+        <v>-0.044341044341044411</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.013364204540675217</v>
+        <v>-0.026728409081350435</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>0.010260508524397388</v>
+        <v>0.020521017048794776</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>-0.024559834455667756</v>
+        <v>-0.049119668911335512</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.015987681622356587</v>
+        <v>-0.031975363244713173</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.015154950869236572</v>
+        <v>0.030309901738473144</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>0.006842159619937449</v>
+        <v>0.013684319239874898</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>0.033759950426617086</v>
+        <v>0.067519900853234172</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.024888153459582008</v>
+        <v>-0.049776306919164015</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.052593006540374965</v>
+        <v>0.10518601308074993</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>-0.017386434053100724</v>
+        <v>-0.034772868106201449</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.052636282899440806</v>
+        <v>0.10527256579888161</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.0013811079987550712</v>
+        <v>-0.0027622159975101424</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>-0.026240526240526252</v>
+        <v>-0.052481052481052504</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0093134069742257242</v>
+        <v>-0.018626813948451448</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>0.012752679419346102</v>
+        <v>0.025505358838692205</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>-0.048350041771094365</v>
+        <v>-0.096700083542188731</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.030957022185092359</v>
+        <v>0.061914044370184718</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.013929945947489863</v>
+        <v>-0.027859891894979727</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>0.0094293801190352827</v>
+        <v>0.018858760238070565</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.023559273559273536</v>
+        <v>0.047118547118547072</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>-0.022901689568356226</v>
+        <v>-0.045803379136712452</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.0051837551837551621</v>
+        <v>0.010367510367510324</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>0.015080510318605606</v>
+        <v>0.030161020637211211</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>0.022666639854139886</v>
+        <v>0.045333279708279772</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.027381339150345047</v>
+        <v>0.054762678300690093</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.0032154603583175179</v>
+        <v>-0.0064309207166350357</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.033055814918559995</v>
+        <v>0.06611162983711999</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>-0.035728458049886669</v>
+        <v>-0.071456916099773338</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.0059976032198254259</v>
+        <v>0.011995206439650852</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>-0.012819016495487084</v>
+        <v>-0.025638032990974169</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>0.015187541503330987</v>
+        <v>0.030375083006661974</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.046565101024165362</v>
+        <v>-0.093130202048330724</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>-0.018038446609875192</v>
+        <v>-0.036076893219750383</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>-0.012584012584012538</v>
+        <v>-0.025168025168025077</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>0.0036290869624203415</v>
+        <v>0.0072581739248406829</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.012298012298012279</v>
+        <v>-0.024596024596024557</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.056816368522717736</v>
+        <v>0.11363273704543547</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.0049911662814889068</v>
+        <v>-0.0099823325629778137</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.023413294246627581</v>
+        <v>-0.046826588493255161</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>0.0035241874527588979</v>
+        <v>0.0070483749055177958</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.017170165557262307</v>
+        <v>0.034340331114524614</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.0010504201680672232</v>
+        <v>-0.0021008403361344463</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.035609857978279036</v>
+        <v>-0.071219715956558072</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.011167761167761164</v>
+        <v>-0.022335522335522329</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.00080735497402162348</v>
+        <v>0.001614709948043247</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.015232116238308169</v>
+        <v>-0.030464232476616337</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.014375600089885754</v>
+        <v>-0.028751200179771508</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0085800085800085968</v>
+        <v>-0.017160017160017194</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>-0.012547368797368813</v>
+        <v>-0.025094737594737626</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.02932754182754177</v>
+        <v>0.05865508365508354</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.011946470279803584</v>
+        <v>-0.023892940559607168</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.0044338981838981661</v>
+        <v>0.0088677963677963323</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.0019179894179894019</v>
+        <v>0.0038359788359788038</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.016796872060029971</v>
+        <v>0.033593744120059943</v>
       </c>
     </row>
   </sheetData>
